--- a/CS武器一览.xlsx
+++ b/CS武器一览.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eproject\DATAANALYSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\CS饰品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89D7BC2-1AA8-452A-9E87-0EB0B3C94765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFEB341-E28C-4B5C-B7CA-1AEBEB188283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="3105" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5763" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="1341">
   <si>
     <t>武器名称</t>
   </si>
@@ -2689,130 +2689,7 @@
     <t>AUG | 烈焰巨蟒</t>
   </si>
   <si>
-    <t>XM1014 | 寒霜锁链</t>
-  </si>
-  <si>
-    <t>SCAR-20 | 黄铜</t>
-  </si>
-  <si>
-    <t>MAC-10 | 赤金锁链</t>
-  </si>
-  <si>
-    <t>CZ75 | 翡翠石英</t>
-  </si>
-  <si>
-    <t>CZ75</t>
-  </si>
-  <si>
-    <t>双持贝瑞塔 | 熊熊烈焰</t>
-  </si>
-  <si>
-    <t>USP消音版 | 寻路者</t>
-  </si>
-  <si>
-    <t>M4A1消音型 | 苔藓石英</t>
-  </si>
-  <si>
-    <t>MAG-7 | 坚固链甲</t>
-  </si>
-  <si>
-    <t>MP7 | 枯焦之色</t>
-  </si>
-  <si>
-    <t>加利尔 | 狂哮飓风</t>
-  </si>
-  <si>
-    <t>加利尔</t>
-  </si>
-  <si>
-    <t>SSG 08 | 血染风采</t>
-  </si>
-  <si>
-    <t>法玛斯 | 暗夜锁链</t>
-  </si>
-  <si>
-    <t>SG 553 | 路障</t>
-  </si>
-  <si>
-    <t>AK-47 | 野荷</t>
-  </si>
-  <si>
-    <t>圣马克镇收藏品</t>
-  </si>
-  <si>
-    <t>MP9 | 野百合</t>
-  </si>
-  <si>
-    <t>AUG | 午夜百合</t>
-  </si>
-  <si>
-    <t>SSG 08 | 海滨印花</t>
-  </si>
-  <si>
-    <t>格洛克18型 | 合成叶</t>
-  </si>
-  <si>
-    <t>MP7 | 青之绽放</t>
-  </si>
-  <si>
-    <t>UMP-45 | 忘忧草</t>
-  </si>
-  <si>
-    <t>法玛斯 | 日暮</t>
-  </si>
-  <si>
-    <t>FN57 | 绛之绽放</t>
-  </si>
-  <si>
-    <t>Tec-9 | 锈叶</t>
-  </si>
-  <si>
-    <t>M4A4 | 暗之绽放</t>
-  </si>
-  <si>
-    <t>XM1014 | 芭蕉叶</t>
-  </si>
-  <si>
-    <t>P90 | 日落百合</t>
-  </si>
-  <si>
-    <t>M249 | 狂野丛林</t>
-  </si>
-  <si>
-    <t>PP野牛 | 海鸟</t>
-  </si>
-  <si>
-    <t>MP5 - SD | 茂竹之园</t>
-  </si>
-  <si>
-    <t>MP5 - SD</t>
-  </si>
-  <si>
-    <t>MAC-10 | 冲浪木</t>
-  </si>
-  <si>
-    <t>截短霰弹枪 | 灌木丛</t>
-  </si>
-  <si>
-    <t>AWP | 王子</t>
-  </si>
-  <si>
     <t>运河水城收藏品</t>
-  </si>
-  <si>
-    <t>MAG-7 | 五指短剑</t>
-  </si>
-  <si>
-    <t>MP9 | 彩绘玻璃</t>
-  </si>
-  <si>
-    <t>新星 | 巴洛克之橙</t>
-  </si>
-  <si>
-    <t>MAC-10 | 绯红镂刻</t>
-  </si>
-  <si>
-    <t>SSG 08 | 橙黄镂刻</t>
   </si>
   <si>
     <t>G3SG1 | 穆拉诺之紫</t>
@@ -3911,6 +3788,287 @@
   <si>
     <t>UMP-45</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4A1消音型|平流层巡航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀升收藏品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK-47|午夜层压板</t>
+  </si>
+  <si>
+    <t>USP消音版|皇家卫</t>
+  </si>
+  <si>
+    <t>MP9|钴蓝佩斯利</t>
+  </si>
+  <si>
+    <t>P2000|皇家巴洛克</t>
+  </si>
+  <si>
+    <t>P90|珊瑚挽歌</t>
+  </si>
+  <si>
+    <t>沙漠之鹰|薄荷折扇</t>
+  </si>
+  <si>
+    <t>法玛斯|雪怪迷彩</t>
+  </si>
+  <si>
+    <t>FN57|青空</t>
+  </si>
+  <si>
+    <t>M4A4|海军虎纹迷彩</t>
+  </si>
+  <si>
+    <t>XM1014|口香糖迷彩</t>
+  </si>
+  <si>
+    <t>内格夫|酸葡萄</t>
+  </si>
+  <si>
+    <t>加利尔AR|鸲珠</t>
+  </si>
+  <si>
+    <t>双持贝瑞塔|蔷薇珠母</t>
+  </si>
+  <si>
+    <t>宙斯X27电击枪|电光幽</t>
+  </si>
+  <si>
+    <t>新星|松石流彩</t>
+  </si>
+  <si>
+    <t>格洛克18型|深海地貌</t>
+  </si>
+  <si>
+    <t>MAC-10|风暴迷彩</t>
+  </si>
+  <si>
+    <t>MP5-SD|青柠蜂</t>
+  </si>
+  <si>
+    <t>MP9|褪色蓝痕</t>
+  </si>
+  <si>
+    <t>P250|绛络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P90|海蓝战术</t>
+  </si>
+  <si>
+    <t>R8左轮手枪|钻蓝握把</t>
+  </si>
+  <si>
+    <t>SG553|暗夜迷彩</t>
+  </si>
+  <si>
+    <t>SSG08|灰色烟幕</t>
+  </si>
+  <si>
+    <t>Tec-9|蓝爆</t>
+  </si>
+  <si>
+    <t>加利尔AR|灰色烟幕</t>
+  </si>
+  <si>
+    <t>截短霰弹枪|径流</t>
+  </si>
+  <si>
+    <t>AWP|一击碧命</t>
+  </si>
+  <si>
+    <t>寒带收藏品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4A4|轰天闪</t>
+  </si>
+  <si>
+    <t>格洛克 18 型|格更鸟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK-47|寒翠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC-10|白杨丛</t>
+  </si>
+  <si>
+    <t>MP5-SDI黄金榕</t>
+  </si>
+  <si>
+    <t>USP 消音版|椰风花语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XM1014|铜斑迷彩</t>
+  </si>
+  <si>
+    <t>工业级AK-47|灰变迷彩</t>
+  </si>
+  <si>
+    <t>MAC-10|酸蚀蜂巢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2000|草泽</t>
+  </si>
+  <si>
+    <t>P90|芥子气</t>
+  </si>
+  <si>
+    <t>R8 左轮手枪|叶蝉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSG 08l虎噬</t>
+  </si>
+  <si>
+    <t>Tec-9l束带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加利尔 ARI酸蚀镖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双持贝瑞塔|精琢孔雀石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUGI特种兵连</t>
+  </si>
+  <si>
+    <t>G3SG1|绿色细胞</t>
+  </si>
+  <si>
+    <t>M249|鼠尾草迷彩</t>
+  </si>
+  <si>
+    <t>MP9|松</t>
+  </si>
+  <si>
+    <t>P250|氧化铜</t>
+  </si>
+  <si>
+    <t>SSG 08|绿陶</t>
+  </si>
+  <si>
+    <t>Tec-9|生瓷</t>
+  </si>
+  <si>
+    <t>UMP-45|碧漩</t>
+  </si>
+  <si>
+    <t>内格夫|生瓷</t>
+  </si>
+  <si>
+    <t>宙斯 X27 电击枪|沼泽DDPAT</t>
+  </si>
+  <si>
+    <t>法玛斯|棕榈色</t>
+  </si>
+  <si>
+    <t>AK-47|新红浪潮</t>
+  </si>
+  <si>
+    <t>热辐射收藏品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4A1 消音型|故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USP 消音版|血刃</t>
+  </si>
+  <si>
+    <t>沙漠之鹰|玛珀丽</t>
+  </si>
+  <si>
+    <t>军规级AWP|砷化污染</t>
+  </si>
+  <si>
+    <t>M4A1 消音型|玫瑰蜂巢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP9|噬裂</t>
+  </si>
+  <si>
+    <t>P250|赤色潮汐</t>
+  </si>
+  <si>
+    <t>SSG 08l霞坠</t>
+  </si>
+  <si>
+    <t>格洛克 18 型|珊红花汛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4A4|钢铁红流</t>
+  </si>
+  <si>
+    <t>P250|沉积</t>
+  </si>
+  <si>
+    <t>SG 553|篮纹半调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tec-9|柠檬酸</t>
+  </si>
+  <si>
+    <t>加利尔 ARI血橙游骑兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法玛斯|灰色幽灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZ75|粉玑</t>
+  </si>
+  <si>
+    <t>FN57|秋日灌木</t>
+  </si>
+  <si>
+    <t>G3SG1|红碧玉</t>
+  </si>
+  <si>
+    <t>MAC-10|古铜</t>
+  </si>
+  <si>
+    <t>MP7|赭石短调</t>
+  </si>
+  <si>
+    <t>MP9|多地形迷彩</t>
+  </si>
+  <si>
+    <t>P90l沙漠半调</t>
+  </si>
+  <si>
+    <t>PP-野牛|木纹迷彩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAR-20|赭石短调</t>
+  </si>
+  <si>
+    <t>XM1014|画布云斑</t>
+  </si>
+  <si>
+    <t>双持贝瑞塔|第二边界</t>
+  </si>
+  <si>
+    <t>新星|沼泽草</t>
   </si>
 </sst>
 </file>
@@ -4150,7 +4308,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4161,6 +4319,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -4191,7 +4355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4242,6 +4406,18 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4544,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1153"/>
+  <dimension ref="A1:E1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="D699" sqref="D699"/>
+    <sheetView tabSelected="1" topLeftCell="A1179" workbookViewId="0">
+      <selection activeCell="H1188" sqref="H1188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16623,7 +16799,7 @@
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
-        <v>1293</v>
+        <v>1252</v>
       </c>
       <c r="B711" s="5" t="s">
         <v>733</v>
@@ -16632,10 +16808,10 @@
         <v>804</v>
       </c>
       <c r="D711" t="s">
-        <v>1294</v>
+        <v>1253</v>
       </c>
       <c r="E711" t="s">
-        <v>1292</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.15">
@@ -17813,16 +17989,16 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
-        <v>888</v>
-      </c>
-      <c r="B781" s="6" t="s">
-        <v>89</v>
+        <v>901</v>
+      </c>
+      <c r="B781" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C781" s="20" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="D781" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E781" t="s">
         <v>22</v>
@@ -17830,16 +18006,16 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
-        <v>889</v>
-      </c>
-      <c r="B782" s="6" t="s">
-        <v>89</v>
+        <v>903</v>
+      </c>
+      <c r="B782" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C782" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D782" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E782" t="s">
         <v>7</v>
@@ -17847,67 +18023,67 @@
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
-        <v>890</v>
-      </c>
-      <c r="B783" s="6" t="s">
-        <v>89</v>
+        <v>905</v>
+      </c>
+      <c r="B783" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C783" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D783" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E783" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
-        <v>891</v>
-      </c>
-      <c r="B784" s="6" t="s">
-        <v>89</v>
+        <v>906</v>
+      </c>
+      <c r="B784" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C784" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D784" t="s">
-        <v>892</v>
+        <v>6</v>
       </c>
       <c r="E784" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
-        <v>893</v>
-      </c>
-      <c r="B785" s="5" t="s">
-        <v>733</v>
+        <v>907</v>
+      </c>
+      <c r="B785" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C785" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D785" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E785" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
-        <v>894</v>
-      </c>
-      <c r="B786" s="5" t="s">
-        <v>733</v>
+        <v>908</v>
+      </c>
+      <c r="B786" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C786" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D786" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E786" t="s">
         <v>13</v>
@@ -17915,67 +18091,67 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
-        <v>895</v>
-      </c>
-      <c r="B787" s="5" t="s">
-        <v>733</v>
+        <v>909</v>
+      </c>
+      <c r="B787" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C787" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D787" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E787" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
-        <v>896</v>
-      </c>
-      <c r="B788" s="5" t="s">
-        <v>733</v>
+        <v>910</v>
+      </c>
+      <c r="B788" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C788" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D788" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E788" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
-        <v>897</v>
-      </c>
-      <c r="B789" s="4" t="s">
-        <v>738</v>
+        <v>911</v>
+      </c>
+      <c r="B789" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C789" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D789" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E789" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
-        <v>898</v>
-      </c>
-      <c r="B790" s="4" t="s">
-        <v>738</v>
+        <v>912</v>
+      </c>
+      <c r="B790" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C790" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D790" t="s">
-        <v>899</v>
+        <v>39</v>
       </c>
       <c r="E790" t="s">
         <v>7</v>
@@ -17983,84 +18159,84 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
-        <v>900</v>
-      </c>
-      <c r="B791" s="4" t="s">
-        <v>738</v>
+        <v>913</v>
+      </c>
+      <c r="B791" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="C791" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D791" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E791" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
-        <v>901</v>
-      </c>
-      <c r="B792" s="4" t="s">
-        <v>738</v>
+        <v>914</v>
+      </c>
+      <c r="B792" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="C792" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D792" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E792" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
-        <v>902</v>
-      </c>
-      <c r="B793" s="4" t="s">
-        <v>738</v>
+        <v>915</v>
+      </c>
+      <c r="B793" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="C793" s="20" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="D793" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E793" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
-        <v>903</v>
-      </c>
-      <c r="B794" s="9" t="s">
-        <v>4</v>
+        <v>916</v>
+      </c>
+      <c r="B794" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="C794" s="20" t="s">
         <v>904</v>
       </c>
       <c r="D794" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="E794" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
-        <v>905</v>
-      </c>
-      <c r="B795" s="8" t="s">
-        <v>11</v>
+        <v>917</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C795" s="20" t="s">
         <v>904</v>
       </c>
       <c r="D795" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E795" t="s">
         <v>22</v>
@@ -18068,10 +18244,10 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
-        <v>906</v>
-      </c>
-      <c r="B796" s="7" t="s">
-        <v>20</v>
+        <v>918</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C796" s="20" t="s">
         <v>904</v>
@@ -18085,50 +18261,50 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
-        <v>907</v>
-      </c>
-      <c r="B797" s="7" t="s">
-        <v>20</v>
+        <v>919</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C797" s="20" t="s">
         <v>904</v>
       </c>
       <c r="D797" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E797" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
-        <v>908</v>
-      </c>
-      <c r="B798" s="7" t="s">
-        <v>20</v>
+        <v>920</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C798" s="20" t="s">
         <v>904</v>
       </c>
       <c r="D798" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E798" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
-        <v>909</v>
-      </c>
-      <c r="B799" s="6" t="s">
-        <v>89</v>
+        <v>921</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C799" s="20" t="s">
         <v>904</v>
       </c>
       <c r="D799" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E799" t="s">
         <v>22</v>
@@ -18136,50 +18312,50 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
-        <v>910</v>
-      </c>
-      <c r="B800" s="6" t="s">
-        <v>89</v>
+        <v>922</v>
+      </c>
+      <c r="B800" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C800" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D800" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="E800" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
-        <v>911</v>
-      </c>
-      <c r="B801" s="6" t="s">
-        <v>89</v>
+        <v>924</v>
+      </c>
+      <c r="B801" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C801" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D801" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E801" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
-        <v>912</v>
-      </c>
-      <c r="B802" s="6" t="s">
-        <v>89</v>
+        <v>925</v>
+      </c>
+      <c r="B802" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C802" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D802" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E802" t="s">
         <v>13</v>
@@ -18187,33 +18363,33 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
-        <v>913</v>
-      </c>
-      <c r="B803" s="5" t="s">
-        <v>733</v>
+        <v>926</v>
+      </c>
+      <c r="B803" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C803" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D803" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E803" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
-        <v>914</v>
-      </c>
-      <c r="B804" s="5" t="s">
-        <v>733</v>
+        <v>927</v>
+      </c>
+      <c r="B804" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C804" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D804" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="E804" t="s">
         <v>7</v>
@@ -18221,50 +18397,50 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
-        <v>915</v>
-      </c>
-      <c r="B805" s="5" t="s">
-        <v>733</v>
+        <v>928</v>
+      </c>
+      <c r="B805" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C805" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D805" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E805" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
-        <v>916</v>
-      </c>
-      <c r="B806" s="5" t="s">
-        <v>733</v>
+        <v>929</v>
+      </c>
+      <c r="B806" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C806" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D806" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E806" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
-        <v>917</v>
-      </c>
-      <c r="B807" s="4" t="s">
-        <v>738</v>
+        <v>930</v>
+      </c>
+      <c r="B807" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C807" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D807" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E807" t="s">
         <v>22</v>
@@ -18272,16 +18448,16 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
-        <v>918</v>
-      </c>
-      <c r="B808" s="4" t="s">
-        <v>738</v>
+        <v>931</v>
+      </c>
+      <c r="B808" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C808" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D808" t="s">
-        <v>781</v>
+        <v>54</v>
       </c>
       <c r="E808" t="s">
         <v>22</v>
@@ -18289,33 +18465,33 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
-        <v>919</v>
-      </c>
-      <c r="B809" s="4" t="s">
-        <v>738</v>
+        <v>932</v>
+      </c>
+      <c r="B809" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="C809" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D809" t="s">
-        <v>920</v>
+        <v>96</v>
       </c>
       <c r="E809" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
-        <v>921</v>
-      </c>
-      <c r="B810" s="4" t="s">
-        <v>738</v>
+        <v>933</v>
+      </c>
+      <c r="B810" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="C810" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D810" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E810" t="s">
         <v>22</v>
@@ -18323,16 +18499,16 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
-        <v>922</v>
-      </c>
-      <c r="B811" s="4" t="s">
-        <v>738</v>
+        <v>934</v>
+      </c>
+      <c r="B811" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="C811" s="20" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="D811" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E811" t="s">
         <v>22</v>
@@ -18340,16 +18516,16 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
+        <v>935</v>
+      </c>
+      <c r="B812" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C812" s="20" t="s">
         <v>923</v>
       </c>
-      <c r="B812" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C812" s="20" t="s">
-        <v>924</v>
-      </c>
       <c r="D812" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E812" t="s">
         <v>7</v>
@@ -18357,16 +18533,16 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
-        <v>925</v>
-      </c>
-      <c r="B813" s="8" t="s">
-        <v>11</v>
+        <v>936</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C813" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D813" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="E813" t="s">
         <v>22</v>
@@ -18374,33 +18550,33 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
-        <v>926</v>
-      </c>
-      <c r="B814" s="7" t="s">
-        <v>20</v>
+        <v>937</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C814" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D814" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E814" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
-        <v>927</v>
-      </c>
-      <c r="B815" s="7" t="s">
-        <v>20</v>
+        <v>938</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C815" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D815" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E815" t="s">
         <v>22</v>
@@ -18408,47 +18584,47 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
-        <v>928</v>
-      </c>
-      <c r="B816" s="7" t="s">
-        <v>20</v>
+        <v>939</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C816" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D816" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E816" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
-        <v>929</v>
-      </c>
-      <c r="B817" s="6" t="s">
-        <v>89</v>
+        <v>940</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="C817" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D817" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E817" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
-        <v>930</v>
+        <v>889</v>
       </c>
       <c r="B818" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C818" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D818" t="s">
         <v>110</v>
@@ -18459,13 +18635,13 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
-        <v>931</v>
+        <v>890</v>
       </c>
       <c r="B819" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C819" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D819" t="s">
         <v>45</v>
@@ -18476,13 +18652,13 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
-        <v>932</v>
+        <v>891</v>
       </c>
       <c r="B820" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C820" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D820" t="s">
         <v>54</v>
@@ -18493,13 +18669,13 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
-        <v>933</v>
+        <v>892</v>
       </c>
       <c r="B821" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C821" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D821" t="s">
         <v>6</v>
@@ -18510,13 +18686,13 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
-        <v>934</v>
+        <v>893</v>
       </c>
       <c r="B822" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C822" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D822" t="s">
         <v>64</v>
@@ -18527,13 +18703,13 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
-        <v>935</v>
+        <v>894</v>
       </c>
       <c r="B823" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C823" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D823" t="s">
         <v>68</v>
@@ -18544,13 +18720,13 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
-        <v>936</v>
+        <v>895</v>
       </c>
       <c r="B824" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C824" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D824" t="s">
         <v>37</v>
@@ -18561,13 +18737,13 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
-        <v>937</v>
+        <v>896</v>
       </c>
       <c r="B825" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C825" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D825" t="s">
         <v>135</v>
@@ -18578,13 +18754,13 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
-        <v>938</v>
+        <v>897</v>
       </c>
       <c r="B826" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C826" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D826" t="s">
         <v>156</v>
@@ -18595,13 +18771,13 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
-        <v>939</v>
+        <v>898</v>
       </c>
       <c r="B827" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C827" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D827" t="s">
         <v>70</v>
@@ -18612,13 +18788,13 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
-        <v>940</v>
+        <v>899</v>
       </c>
       <c r="B828" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C828" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D828" t="s">
         <v>159</v>
@@ -18629,13 +18805,13 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A829" t="s">
-        <v>941</v>
+        <v>900</v>
       </c>
       <c r="B829" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C829" s="20" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="D829" t="s">
         <v>92</v>
@@ -18646,13 +18822,13 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A830" t="s">
-        <v>942</v>
+        <v>901</v>
       </c>
       <c r="B830" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C830" s="20" t="s">
-        <v>943</v>
+        <v>902</v>
       </c>
       <c r="D830" t="s">
         <v>66</v>
@@ -18663,13 +18839,13 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
-        <v>944</v>
+        <v>903</v>
       </c>
       <c r="B831" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C831" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D831" t="s">
         <v>64</v>
@@ -18680,13 +18856,13 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A832" t="s">
-        <v>946</v>
+        <v>905</v>
       </c>
       <c r="B832" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C832" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D832" t="s">
         <v>45</v>
@@ -18697,13 +18873,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A833" t="s">
-        <v>947</v>
+        <v>906</v>
       </c>
       <c r="B833" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C833" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D833" t="s">
         <v>6</v>
@@ -18714,13 +18890,13 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A834" t="s">
-        <v>948</v>
+        <v>907</v>
       </c>
       <c r="B834" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C834" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D834" t="s">
         <v>24</v>
@@ -18731,13 +18907,13 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A835" t="s">
-        <v>949</v>
+        <v>908</v>
       </c>
       <c r="B835" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C835" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D835" t="s">
         <v>68</v>
@@ -18748,13 +18924,13 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
-        <v>950</v>
+        <v>909</v>
       </c>
       <c r="B836" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C836" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D836" t="s">
         <v>21</v>
@@ -18765,13 +18941,13 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A837" t="s">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="B837" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C837" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D837" t="s">
         <v>132</v>
@@ -18782,13 +18958,13 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A838" t="s">
-        <v>952</v>
+        <v>911</v>
       </c>
       <c r="B838" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C838" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D838" t="s">
         <v>28</v>
@@ -18799,13 +18975,13 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A839" t="s">
-        <v>953</v>
+        <v>912</v>
       </c>
       <c r="B839" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C839" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D839" t="s">
         <v>39</v>
@@ -18816,13 +18992,13 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A840" t="s">
-        <v>954</v>
+        <v>913</v>
       </c>
       <c r="B840" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C840" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D840" t="s">
         <v>30</v>
@@ -18833,13 +19009,13 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A841" t="s">
-        <v>955</v>
+        <v>914</v>
       </c>
       <c r="B841" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C841" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D841" t="s">
         <v>156</v>
@@ -18850,13 +19026,13 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A842" t="s">
-        <v>956</v>
+        <v>915</v>
       </c>
       <c r="B842" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C842" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D842" t="s">
         <v>43</v>
@@ -18867,13 +19043,13 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A843" t="s">
-        <v>957</v>
+        <v>916</v>
       </c>
       <c r="B843" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C843" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D843" t="s">
         <v>108</v>
@@ -18884,13 +19060,13 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A844" t="s">
-        <v>958</v>
+        <v>917</v>
       </c>
       <c r="B844" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C844" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D844" t="s">
         <v>74</v>
@@ -18901,13 +19077,13 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A845" t="s">
-        <v>959</v>
+        <v>918</v>
       </c>
       <c r="B845" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C845" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D845" t="s">
         <v>135</v>
@@ -18918,13 +19094,13 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A846" t="s">
-        <v>960</v>
+        <v>919</v>
       </c>
       <c r="B846" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C846" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D846" t="s">
         <v>72</v>
@@ -18935,13 +19111,13 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A847" t="s">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="B847" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C847" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D847" t="s">
         <v>66</v>
@@ -18952,13 +19128,13 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A848" t="s">
-        <v>962</v>
+        <v>921</v>
       </c>
       <c r="B848" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C848" s="20" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="D848" t="s">
         <v>35</v>
@@ -18969,13 +19145,13 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A849" t="s">
-        <v>963</v>
+        <v>922</v>
       </c>
       <c r="B849" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C849" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D849" t="s">
         <v>166</v>
@@ -18986,13 +19162,13 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A850" t="s">
-        <v>965</v>
+        <v>924</v>
       </c>
       <c r="B850" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C850" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D850" t="s">
         <v>37</v>
@@ -19003,13 +19179,13 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A851" t="s">
-        <v>966</v>
+        <v>925</v>
       </c>
       <c r="B851" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C851" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D851" t="s">
         <v>30</v>
@@ -19020,13 +19196,13 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A852" t="s">
-        <v>967</v>
+        <v>926</v>
       </c>
       <c r="B852" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C852" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D852" t="s">
         <v>74</v>
@@ -19037,13 +19213,13 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A853" t="s">
-        <v>968</v>
+        <v>927</v>
       </c>
       <c r="B853" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C853" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D853" t="s">
         <v>135</v>
@@ -19054,13 +19230,13 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A854" t="s">
-        <v>969</v>
+        <v>928</v>
       </c>
       <c r="B854" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C854" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D854" t="s">
         <v>9</v>
@@ -19071,13 +19247,13 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A855" t="s">
-        <v>970</v>
+        <v>929</v>
       </c>
       <c r="B855" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C855" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D855" t="s">
         <v>68</v>
@@ -19088,13 +19264,13 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A856" t="s">
-        <v>971</v>
+        <v>930</v>
       </c>
       <c r="B856" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C856" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D856" t="s">
         <v>66</v>
@@ -19105,13 +19281,13 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A857" t="s">
-        <v>972</v>
+        <v>931</v>
       </c>
       <c r="B857" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C857" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D857" t="s">
         <v>54</v>
@@ -19122,13 +19298,13 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A858" t="s">
-        <v>973</v>
+        <v>932</v>
       </c>
       <c r="B858" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C858" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D858" t="s">
         <v>96</v>
@@ -19139,13 +19315,13 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A859" t="s">
-        <v>974</v>
+        <v>933</v>
       </c>
       <c r="B859" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C859" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D859" t="s">
         <v>92</v>
@@ -19156,13 +19332,13 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A860" t="s">
-        <v>975</v>
+        <v>934</v>
       </c>
       <c r="B860" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C860" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D860" t="s">
         <v>24</v>
@@ -19173,13 +19349,13 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A861" t="s">
-        <v>976</v>
+        <v>935</v>
       </c>
       <c r="B861" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C861" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D861" t="s">
         <v>28</v>
@@ -19190,13 +19366,13 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A862" t="s">
-        <v>977</v>
+        <v>936</v>
       </c>
       <c r="B862" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C862" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D862" t="s">
         <v>154</v>
@@ -19207,13 +19383,13 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A863" t="s">
-        <v>978</v>
+        <v>937</v>
       </c>
       <c r="B863" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C863" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D863" t="s">
         <v>26</v>
@@ -19224,13 +19400,13 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A864" t="s">
-        <v>979</v>
+        <v>938</v>
       </c>
       <c r="B864" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C864" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D864" t="s">
         <v>35</v>
@@ -19241,13 +19417,13 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A865" t="s">
-        <v>980</v>
+        <v>939</v>
       </c>
       <c r="B865" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C865" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D865" t="s">
         <v>68</v>
@@ -19258,13 +19434,13 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A866" t="s">
-        <v>981</v>
+        <v>940</v>
       </c>
       <c r="B866" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C866" s="20" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="D866" t="s">
         <v>108</v>
@@ -19275,13 +19451,13 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A867" t="s">
-        <v>982</v>
+        <v>941</v>
       </c>
       <c r="B867" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C867" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D867" t="s">
         <v>70</v>
@@ -19292,13 +19468,13 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A868" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="B868" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C868" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D868" t="s">
         <v>98</v>
@@ -19309,13 +19485,13 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A869" t="s">
-        <v>985</v>
+        <v>944</v>
       </c>
       <c r="B869" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C869" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D869" t="s">
         <v>135</v>
@@ -19326,13 +19502,13 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A870" t="s">
-        <v>986</v>
+        <v>945</v>
       </c>
       <c r="B870" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C870" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D870" t="s">
         <v>108</v>
@@ -19343,13 +19519,13 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A871" t="s">
-        <v>987</v>
+        <v>946</v>
       </c>
       <c r="B871" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C871" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D871" t="s">
         <v>74</v>
@@ -19360,13 +19536,13 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A872" t="s">
-        <v>988</v>
+        <v>947</v>
       </c>
       <c r="B872" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C872" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D872" t="s">
         <v>68</v>
@@ -19377,13 +19553,13 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A873" t="s">
-        <v>989</v>
+        <v>948</v>
       </c>
       <c r="B873" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C873" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D873" t="s">
         <v>21</v>
@@ -19394,13 +19570,13 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A874" t="s">
-        <v>990</v>
+        <v>949</v>
       </c>
       <c r="B874" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C874" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D874" t="s">
         <v>92</v>
@@ -19411,13 +19587,13 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A875" t="s">
-        <v>991</v>
+        <v>950</v>
       </c>
       <c r="B875" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C875" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D875" t="s">
         <v>39</v>
@@ -19428,13 +19604,13 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A876" t="s">
-        <v>992</v>
+        <v>951</v>
       </c>
       <c r="B876" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C876" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D876" t="s">
         <v>30</v>
@@ -19445,13 +19621,13 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A877" t="s">
-        <v>993</v>
+        <v>952</v>
       </c>
       <c r="B877" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C877" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D877" t="s">
         <v>24</v>
@@ -19462,13 +19638,13 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A878" t="s">
-        <v>994</v>
+        <v>953</v>
       </c>
       <c r="B878" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C878" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D878" t="s">
         <v>33</v>
@@ -19479,13 +19655,13 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A879" t="s">
-        <v>995</v>
+        <v>954</v>
       </c>
       <c r="B879" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C879" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D879" t="s">
         <v>26</v>
@@ -19496,13 +19672,13 @@
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A880" t="s">
-        <v>996</v>
+        <v>955</v>
       </c>
       <c r="B880" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C880" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D880" t="s">
         <v>72</v>
@@ -19513,13 +19689,13 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A881" t="s">
-        <v>997</v>
+        <v>956</v>
       </c>
       <c r="B881" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C881" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D881" t="s">
         <v>37</v>
@@ -19530,13 +19706,13 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A882" t="s">
-        <v>998</v>
+        <v>957</v>
       </c>
       <c r="B882" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C882" s="20" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="D882" t="s">
         <v>86</v>
@@ -19547,13 +19723,13 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A883" t="s">
-        <v>999</v>
+        <v>958</v>
       </c>
       <c r="B883" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C883" s="20" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="D883" t="s">
         <v>30</v>
@@ -19564,13 +19740,13 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A884" t="s">
-        <v>1001</v>
+        <v>960</v>
       </c>
       <c r="B884" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C884" s="20" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="D884" t="s">
         <v>72</v>
@@ -19581,13 +19757,13 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A885" t="s">
-        <v>1002</v>
+        <v>961</v>
       </c>
       <c r="B885" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C885" s="20" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="D885" t="s">
         <v>135</v>
@@ -19598,13 +19774,13 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A886" t="s">
-        <v>1003</v>
+        <v>962</v>
       </c>
       <c r="B886" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C886" s="20" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="D886" t="s">
         <v>92</v>
@@ -19615,13 +19791,13 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A887" t="s">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="B887" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C887" s="20" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="D887" t="s">
         <v>26</v>
@@ -19632,13 +19808,13 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A888" t="s">
-        <v>1005</v>
+        <v>964</v>
       </c>
       <c r="B888" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C888" s="20" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="D888" t="s">
         <v>35</v>
@@ -19649,13 +19825,13 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A889" t="s">
-        <v>1006</v>
+        <v>965</v>
       </c>
       <c r="B889" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C889" s="20" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="D889" t="s">
         <v>64</v>
@@ -19666,13 +19842,13 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A890" t="s">
-        <v>1007</v>
+        <v>966</v>
       </c>
       <c r="B890" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C890" s="20" t="s">
-        <v>1008</v>
+        <v>967</v>
       </c>
       <c r="D890" t="s">
         <v>37</v>
@@ -19683,13 +19859,13 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A891" t="s">
-        <v>1009</v>
+        <v>968</v>
       </c>
       <c r="B891" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C891" s="20" t="s">
-        <v>1008</v>
+        <v>967</v>
       </c>
       <c r="D891" t="s">
         <v>28</v>
@@ -19700,13 +19876,13 @@
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A892" t="s">
-        <v>1010</v>
+        <v>969</v>
       </c>
       <c r="B892" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C892" s="20" t="s">
-        <v>1008</v>
+        <v>967</v>
       </c>
       <c r="D892" t="s">
         <v>6</v>
@@ -19717,13 +19893,13 @@
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A893" t="s">
-        <v>1011</v>
+        <v>970</v>
       </c>
       <c r="B893" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C893" s="20" t="s">
-        <v>1008</v>
+        <v>967</v>
       </c>
       <c r="D893" t="s">
         <v>39</v>
@@ -19734,13 +19910,13 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A894" t="s">
-        <v>1012</v>
+        <v>971</v>
       </c>
       <c r="B894" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C894" s="20" t="s">
-        <v>1008</v>
+        <v>967</v>
       </c>
       <c r="D894" t="s">
         <v>26</v>
@@ -19751,13 +19927,13 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A895" t="s">
-        <v>1013</v>
+        <v>972</v>
       </c>
       <c r="B895" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C895" s="20" t="s">
-        <v>1008</v>
+        <v>967</v>
       </c>
       <c r="D895" t="s">
         <v>154</v>
@@ -19768,13 +19944,13 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A896" t="s">
-        <v>1014</v>
+        <v>973</v>
       </c>
       <c r="B896" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C896" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D896" t="s">
         <v>6</v>
@@ -19785,13 +19961,13 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A897" t="s">
-        <v>1016</v>
+        <v>975</v>
       </c>
       <c r="B897" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C897" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D897" t="s">
         <v>121</v>
@@ -19802,13 +19978,13 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A898" t="s">
-        <v>1017</v>
+        <v>976</v>
       </c>
       <c r="B898" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C898" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D898" t="s">
         <v>6</v>
@@ -19819,13 +19995,13 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A899" t="s">
-        <v>1018</v>
+        <v>977</v>
       </c>
       <c r="B899" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C899" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D899" t="s">
         <v>21</v>
@@ -19836,13 +20012,13 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A900" t="s">
-        <v>1019</v>
+        <v>978</v>
       </c>
       <c r="B900" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C900" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D900" t="s">
         <v>12</v>
@@ -19853,13 +20029,13 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A901" t="s">
-        <v>1020</v>
+        <v>979</v>
       </c>
       <c r="B901" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C901" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D901" t="s">
         <v>33</v>
@@ -19870,13 +20046,13 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A902" t="s">
-        <v>1021</v>
+        <v>980</v>
       </c>
       <c r="B902" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C902" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D902" t="s">
         <v>54</v>
@@ -19887,13 +20063,13 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A903" t="s">
-        <v>1022</v>
+        <v>981</v>
       </c>
       <c r="B903" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C903" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D903" t="s">
         <v>43</v>
@@ -19904,13 +20080,13 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A904" t="s">
-        <v>1023</v>
+        <v>982</v>
       </c>
       <c r="B904" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C904" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D904" t="s">
         <v>50</v>
@@ -19921,13 +20097,13 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A905" t="s">
-        <v>1024</v>
+        <v>983</v>
       </c>
       <c r="B905" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C905" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D905" t="s">
         <v>64</v>
@@ -19938,13 +20114,13 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A906" t="s">
-        <v>1025</v>
+        <v>984</v>
       </c>
       <c r="B906" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C906" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D906" t="s">
         <v>110</v>
@@ -19955,13 +20131,13 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A907" t="s">
-        <v>1026</v>
+        <v>985</v>
       </c>
       <c r="B907" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C907" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D907" t="s">
         <v>24</v>
@@ -19972,13 +20148,13 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A908" t="s">
-        <v>1027</v>
+        <v>986</v>
       </c>
       <c r="B908" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C908" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D908" t="s">
         <v>159</v>
@@ -19989,13 +20165,13 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A909" t="s">
-        <v>1028</v>
+        <v>987</v>
       </c>
       <c r="B909" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C909" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D909" t="s">
         <v>72</v>
@@ -20006,13 +20182,13 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A910" t="s">
-        <v>1029</v>
+        <v>988</v>
       </c>
       <c r="B910" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C910" s="20" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
       <c r="D910" t="s">
         <v>39</v>
@@ -20023,13 +20199,13 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A911" t="s">
-        <v>1030</v>
+        <v>989</v>
       </c>
       <c r="B911" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C911" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D911" t="s">
         <v>68</v>
@@ -20040,13 +20216,13 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A912" t="s">
-        <v>1032</v>
+        <v>991</v>
       </c>
       <c r="B912" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C912" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D912" t="s">
         <v>6</v>
@@ -20057,13 +20233,13 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A913" t="s">
-        <v>1033</v>
+        <v>992</v>
       </c>
       <c r="B913" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C913" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D913" t="s">
         <v>159</v>
@@ -20074,13 +20250,13 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A914" t="s">
-        <v>1034</v>
+        <v>993</v>
       </c>
       <c r="B914" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C914" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D914" t="s">
         <v>121</v>
@@ -20091,13 +20267,13 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A915" t="s">
-        <v>1035</v>
+        <v>994</v>
       </c>
       <c r="B915" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C915" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D915" t="s">
         <v>96</v>
@@ -20108,13 +20284,13 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A916" t="s">
-        <v>1036</v>
+        <v>995</v>
       </c>
       <c r="B916" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C916" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D916" t="s">
         <v>110</v>
@@ -20125,13 +20301,13 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A917" t="s">
-        <v>1037</v>
+        <v>996</v>
       </c>
       <c r="B917" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C917" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D917" t="s">
         <v>30</v>
@@ -20142,13 +20318,13 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A918" t="s">
-        <v>1038</v>
+        <v>997</v>
       </c>
       <c r="B918" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C918" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D918" t="s">
         <v>43</v>
@@ -20159,13 +20335,13 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A919" t="s">
-        <v>1039</v>
+        <v>998</v>
       </c>
       <c r="B919" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C919" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D919" t="s">
         <v>154</v>
@@ -20176,13 +20352,13 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A920" t="s">
-        <v>1040</v>
+        <v>999</v>
       </c>
       <c r="B920" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C920" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D920" t="s">
         <v>35</v>
@@ -20193,13 +20369,13 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A921" t="s">
-        <v>1041</v>
+        <v>1000</v>
       </c>
       <c r="B921" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C921" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D921" t="s">
         <v>156</v>
@@ -20210,13 +20386,13 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A922" t="s">
-        <v>1042</v>
+        <v>1001</v>
       </c>
       <c r="B922" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C922" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D922" t="s">
         <v>24</v>
@@ -20227,13 +20403,13 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A923" t="s">
-        <v>1043</v>
+        <v>1002</v>
       </c>
       <c r="B923" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C923" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D923" t="s">
         <v>92</v>
@@ -20244,13 +20420,13 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A924" t="s">
-        <v>1044</v>
+        <v>1003</v>
       </c>
       <c r="B924" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C924" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D924" t="s">
         <v>21</v>
@@ -20261,13 +20437,13 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A925" t="s">
-        <v>1045</v>
+        <v>1004</v>
       </c>
       <c r="B925" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C925" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D925" t="s">
         <v>64</v>
@@ -20278,13 +20454,13 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A926" t="s">
-        <v>1046</v>
+        <v>1005</v>
       </c>
       <c r="B926" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C926" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="D926" t="s">
         <v>37</v>
@@ -20295,13 +20471,13 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A927" t="s">
-        <v>1047</v>
+        <v>1006</v>
       </c>
       <c r="B927" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C927" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D927" t="s">
         <v>96</v>
@@ -20312,13 +20488,13 @@
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A928" t="s">
-        <v>1049</v>
+        <v>1008</v>
       </c>
       <c r="B928" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C928" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D928" t="s">
         <v>98</v>
@@ -20329,13 +20505,13 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A929" t="s">
-        <v>1050</v>
+        <v>1009</v>
       </c>
       <c r="B929" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C929" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D929" t="s">
         <v>37</v>
@@ -20346,13 +20522,13 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A930" t="s">
-        <v>1051</v>
+        <v>1010</v>
       </c>
       <c r="B930" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C930" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D930" t="s">
         <v>30</v>
@@ -20363,13 +20539,13 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A931" t="s">
-        <v>1052</v>
+        <v>1011</v>
       </c>
       <c r="B931" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C931" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D931" t="s">
         <v>33</v>
@@ -20380,13 +20556,13 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A932" t="s">
-        <v>1053</v>
+        <v>1012</v>
       </c>
       <c r="B932" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C932" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D932" t="s">
         <v>43</v>
@@ -20397,13 +20573,13 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A933" t="s">
-        <v>1054</v>
+        <v>1013</v>
       </c>
       <c r="B933" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C933" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D933" t="s">
         <v>72</v>
@@ -20414,13 +20590,13 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A934" t="s">
-        <v>1055</v>
+        <v>1014</v>
       </c>
       <c r="B934" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C934" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D934" t="s">
         <v>135</v>
@@ -20431,13 +20607,13 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A935" t="s">
-        <v>1056</v>
+        <v>1015</v>
       </c>
       <c r="B935" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C935" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D935" t="s">
         <v>108</v>
@@ -20448,13 +20624,13 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A936" t="s">
-        <v>1057</v>
+        <v>1016</v>
       </c>
       <c r="B936" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C936" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D936" t="s">
         <v>92</v>
@@ -20465,13 +20641,13 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A937" t="s">
-        <v>1058</v>
+        <v>1017</v>
       </c>
       <c r="B937" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C937" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D937" t="s">
         <v>68</v>
@@ -20482,13 +20658,13 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A938" t="s">
-        <v>1059</v>
+        <v>1018</v>
       </c>
       <c r="B938" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C938" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D938" t="s">
         <v>26</v>
@@ -20499,13 +20675,13 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A939" t="s">
-        <v>1060</v>
+        <v>1019</v>
       </c>
       <c r="B939" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C939" s="20" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D939" t="s">
         <v>64</v>
@@ -20516,13 +20692,13 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A940" t="s">
-        <v>1061</v>
+        <v>1020</v>
       </c>
       <c r="B940" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C940" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D940" t="s">
         <v>30</v>
@@ -20533,13 +20709,13 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A941" t="s">
-        <v>1063</v>
+        <v>1022</v>
       </c>
       <c r="B941" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C941" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D941" t="s">
         <v>166</v>
@@ -20550,13 +20726,13 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A942" t="s">
-        <v>1064</v>
+        <v>1023</v>
       </c>
       <c r="B942" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C942" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D942" t="s">
         <v>64</v>
@@ -20567,13 +20743,13 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A943" t="s">
-        <v>1065</v>
+        <v>1024</v>
       </c>
       <c r="B943" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C943" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D943" t="s">
         <v>45</v>
@@ -20584,13 +20760,13 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A944" t="s">
-        <v>1066</v>
+        <v>1025</v>
       </c>
       <c r="B944" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C944" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D944" t="s">
         <v>43</v>
@@ -20601,13 +20777,13 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A945" t="s">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="B945" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C945" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D945" t="s">
         <v>68</v>
@@ -20618,13 +20794,13 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A946" t="s">
-        <v>1068</v>
+        <v>1027</v>
       </c>
       <c r="B946" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C946" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D946" t="s">
         <v>24</v>
@@ -20635,13 +20811,13 @@
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A947" t="s">
-        <v>1069</v>
+        <v>1028</v>
       </c>
       <c r="B947" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C947" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D947" t="s">
         <v>26</v>
@@ -20652,13 +20828,13 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A948" t="s">
-        <v>1070</v>
+        <v>1029</v>
       </c>
       <c r="B948" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C948" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D948" t="s">
         <v>159</v>
@@ -20669,13 +20845,13 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A949" t="s">
-        <v>1071</v>
+        <v>1030</v>
       </c>
       <c r="B949" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C949" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D949" t="s">
         <v>121</v>
@@ -20686,13 +20862,13 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A950" t="s">
-        <v>1072</v>
+        <v>1031</v>
       </c>
       <c r="B950" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C950" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D950" t="s">
         <v>96</v>
@@ -20703,13 +20879,13 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A951" t="s">
-        <v>1073</v>
+        <v>1032</v>
       </c>
       <c r="B951" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C951" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D951" t="s">
         <v>12</v>
@@ -20720,13 +20896,13 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A952" t="s">
-        <v>1074</v>
+        <v>1033</v>
       </c>
       <c r="B952" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C952" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D952" t="s">
         <v>70</v>
@@ -20737,13 +20913,13 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A953" t="s">
-        <v>1075</v>
+        <v>1034</v>
       </c>
       <c r="B953" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C953" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D953" t="s">
         <v>159</v>
@@ -20754,13 +20930,13 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A954" t="s">
-        <v>1076</v>
+        <v>1035</v>
       </c>
       <c r="B954" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C954" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D954" t="s">
         <v>86</v>
@@ -20771,13 +20947,13 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A955" t="s">
-        <v>1077</v>
+        <v>1036</v>
       </c>
       <c r="B955" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C955" s="20" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="D955" t="s">
         <v>74</v>
@@ -20788,13 +20964,13 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A956" t="s">
-        <v>1078</v>
+        <v>1037</v>
       </c>
       <c r="B956" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C956" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D956" t="s">
         <v>9</v>
@@ -20805,13 +20981,13 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A957" t="s">
-        <v>1080</v>
+        <v>1039</v>
       </c>
       <c r="B957" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C957" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D957" t="s">
         <v>166</v>
@@ -20822,13 +20998,13 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A958" t="s">
-        <v>1081</v>
+        <v>1040</v>
       </c>
       <c r="B958" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C958" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D958" t="s">
         <v>121</v>
@@ -20839,13 +21015,13 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A959" t="s">
-        <v>1082</v>
+        <v>1041</v>
       </c>
       <c r="B959" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C959" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D959" t="s">
         <v>159</v>
@@ -20856,13 +21032,13 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A960" t="s">
-        <v>1083</v>
+        <v>1042</v>
       </c>
       <c r="B960" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C960" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D960" t="s">
         <v>72</v>
@@ -20873,13 +21049,13 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A961" t="s">
-        <v>1084</v>
+        <v>1043</v>
       </c>
       <c r="B961" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C961" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D961" t="s">
         <v>50</v>
@@ -20890,13 +21066,13 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A962" t="s">
-        <v>1085</v>
+        <v>1044</v>
       </c>
       <c r="B962" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C962" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D962" t="s">
         <v>12</v>
@@ -20907,13 +21083,13 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A963" t="s">
-        <v>1086</v>
+        <v>1045</v>
       </c>
       <c r="B963" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C963" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D963" t="s">
         <v>154</v>
@@ -20924,13 +21100,13 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A964" t="s">
-        <v>1087</v>
+        <v>1046</v>
       </c>
       <c r="B964" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C964" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D964" t="s">
         <v>74</v>
@@ -20941,13 +21117,13 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A965" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="B965" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C965" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D965" t="s">
         <v>21</v>
@@ -20958,13 +21134,13 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A966" t="s">
-        <v>1089</v>
+        <v>1048</v>
       </c>
       <c r="B966" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C966" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D966" t="s">
         <v>54</v>
@@ -20975,13 +21151,13 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A967" t="s">
-        <v>1090</v>
+        <v>1049</v>
       </c>
       <c r="B967" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C967" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D967" t="s">
         <v>35</v>
@@ -20992,13 +21168,13 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A968" t="s">
-        <v>1091</v>
+        <v>1050</v>
       </c>
       <c r="B968" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C968" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D968" t="s">
         <v>43</v>
@@ -21009,13 +21185,13 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A969" t="s">
-        <v>1092</v>
+        <v>1051</v>
       </c>
       <c r="B969" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C969" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D969" t="s">
         <v>70</v>
@@ -21026,13 +21202,13 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A970" t="s">
-        <v>1093</v>
+        <v>1052</v>
       </c>
       <c r="B970" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C970" s="20" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="D970" t="s">
         <v>45</v>
@@ -21043,13 +21219,13 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A971" t="s">
-        <v>1094</v>
+        <v>1053</v>
       </c>
       <c r="B971" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C971" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D971" t="s">
         <v>30</v>
@@ -21060,13 +21236,13 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A972" t="s">
-        <v>1096</v>
+        <v>1055</v>
       </c>
       <c r="B972" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C972" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D972" t="s">
         <v>50</v>
@@ -21077,13 +21253,13 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A973" t="s">
-        <v>1097</v>
+        <v>1056</v>
       </c>
       <c r="B973" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C973" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D973" t="s">
         <v>121</v>
@@ -21094,13 +21270,13 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A974" t="s">
-        <v>1098</v>
+        <v>1057</v>
       </c>
       <c r="B974" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C974" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D974" t="s">
         <v>21</v>
@@ -21111,13 +21287,13 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A975" t="s">
-        <v>1099</v>
+        <v>1058</v>
       </c>
       <c r="B975" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C975" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D975" t="s">
         <v>135</v>
@@ -21128,13 +21304,13 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A976" t="s">
-        <v>1100</v>
+        <v>1059</v>
       </c>
       <c r="B976" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C976" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D976" t="s">
         <v>9</v>
@@ -21145,13 +21321,13 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A977" t="s">
-        <v>1101</v>
+        <v>1060</v>
       </c>
       <c r="B977" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C977" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D977" t="s">
         <v>6</v>
@@ -21162,13 +21338,13 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A978" t="s">
-        <v>1102</v>
+        <v>1061</v>
       </c>
       <c r="B978" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C978" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D978" t="s">
         <v>70</v>
@@ -21179,13 +21355,13 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A979" t="s">
-        <v>1103</v>
+        <v>1062</v>
       </c>
       <c r="B979" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C979" s="20" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="D979" t="s">
         <v>28</v>
@@ -21196,13 +21372,13 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A980" t="s">
-        <v>1104</v>
+        <v>1063</v>
       </c>
       <c r="B980" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C980" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D980" t="s">
         <v>156</v>
@@ -21213,13 +21389,13 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A981" t="s">
-        <v>1106</v>
+        <v>1065</v>
       </c>
       <c r="B981" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C981" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D981" t="s">
         <v>50</v>
@@ -21230,13 +21406,13 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A982" t="s">
-        <v>1107</v>
+        <v>1066</v>
       </c>
       <c r="B982" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C982" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D982" t="s">
         <v>64</v>
@@ -21247,13 +21423,13 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A983" t="s">
-        <v>1108</v>
+        <v>1067</v>
       </c>
       <c r="B983" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C983" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D983" t="s">
         <v>108</v>
@@ -21264,13 +21440,13 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A984" t="s">
-        <v>1109</v>
+        <v>1068</v>
       </c>
       <c r="B984" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C984" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D984" t="s">
         <v>166</v>
@@ -21281,13 +21457,13 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A985" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
       <c r="B985" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C985" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D985" t="s">
         <v>21</v>
@@ -21298,13 +21474,13 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A986" t="s">
-        <v>1111</v>
+        <v>1070</v>
       </c>
       <c r="B986" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D986" t="s">
         <v>6</v>
@@ -21315,13 +21491,13 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A987" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
       <c r="B987" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D987" t="s">
         <v>26</v>
@@ -21332,13 +21508,13 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A988" t="s">
-        <v>1113</v>
+        <v>1072</v>
       </c>
       <c r="B988" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C988" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D988" t="s">
         <v>43</v>
@@ -21349,13 +21525,13 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A989" t="s">
-        <v>1114</v>
+        <v>1073</v>
       </c>
       <c r="B989" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C989" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D989" t="s">
         <v>37</v>
@@ -21366,13 +21542,13 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A990" t="s">
-        <v>1115</v>
+        <v>1074</v>
       </c>
       <c r="B990" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C990" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D990" t="s">
         <v>110</v>
@@ -21383,13 +21559,13 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A991" t="s">
-        <v>1116</v>
+        <v>1075</v>
       </c>
       <c r="B991" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C991" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D991" t="s">
         <v>68</v>
@@ -21400,13 +21576,13 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A992" t="s">
-        <v>1117</v>
+        <v>1076</v>
       </c>
       <c r="B992" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D992" t="s">
         <v>70</v>
@@ -21417,13 +21593,13 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A993" t="s">
-        <v>1118</v>
+        <v>1077</v>
       </c>
       <c r="B993" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C993" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D993" t="s">
         <v>54</v>
@@ -21434,13 +21610,13 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A994" t="s">
-        <v>1119</v>
+        <v>1078</v>
       </c>
       <c r="B994" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D994" t="s">
         <v>72</v>
@@ -21451,13 +21627,13 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A995" t="s">
-        <v>1120</v>
+        <v>1079</v>
       </c>
       <c r="B995" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C995" s="20" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="D995" t="s">
         <v>154</v>
@@ -21468,13 +21644,13 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A996" t="s">
-        <v>1121</v>
+        <v>1080</v>
       </c>
       <c r="B996" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C996" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D996" t="s">
         <v>9</v>
@@ -21485,13 +21661,13 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A997" t="s">
-        <v>1123</v>
+        <v>1082</v>
       </c>
       <c r="B997" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C997" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D997" t="s">
         <v>28</v>
@@ -21502,13 +21678,13 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A998" t="s">
-        <v>1124</v>
+        <v>1083</v>
       </c>
       <c r="B998" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C998" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D998" t="s">
         <v>110</v>
@@ -21519,13 +21695,13 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A999" t="s">
-        <v>1125</v>
+        <v>1084</v>
       </c>
       <c r="B999" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C999" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D999" t="s">
         <v>166</v>
@@ -21536,13 +21712,13 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1000" t="s">
-        <v>1126</v>
+        <v>1085</v>
       </c>
       <c r="B1000" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1000" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1000" t="s">
         <v>35</v>
@@ -21553,13 +21729,13 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1001" t="s">
-        <v>1127</v>
+        <v>1086</v>
       </c>
       <c r="B1001" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1001" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1001" t="s">
         <v>72</v>
@@ -21570,13 +21746,13 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1002" t="s">
-        <v>1128</v>
+        <v>1087</v>
       </c>
       <c r="B1002" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1002" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1002" t="s">
         <v>37</v>
@@ -21587,13 +21763,13 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1003" t="s">
-        <v>1129</v>
+        <v>1088</v>
       </c>
       <c r="B1003" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1003" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1003" t="s">
         <v>50</v>
@@ -21604,13 +21780,13 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1004" t="s">
-        <v>1130</v>
+        <v>1089</v>
       </c>
       <c r="B1004" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1004" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1004" t="s">
         <v>9</v>
@@ -21621,13 +21797,13 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1005" t="s">
-        <v>1131</v>
+        <v>1090</v>
       </c>
       <c r="B1005" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1005" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1005" t="s">
         <v>86</v>
@@ -21638,13 +21814,13 @@
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1006" t="s">
-        <v>1132</v>
+        <v>1091</v>
       </c>
       <c r="B1006" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1006" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1006" t="s">
         <v>24</v>
@@ -21655,13 +21831,13 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1007" t="s">
-        <v>1133</v>
+        <v>1092</v>
       </c>
       <c r="B1007" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1007" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1007" t="s">
         <v>135</v>
@@ -21672,13 +21848,13 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1008" t="s">
-        <v>1134</v>
+        <v>1093</v>
       </c>
       <c r="B1008" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1008" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1008" t="s">
         <v>45</v>
@@ -21689,13 +21865,13 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1009" t="s">
-        <v>1135</v>
+        <v>1094</v>
       </c>
       <c r="B1009" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1009" s="20" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="D1009" t="s">
         <v>154</v>
@@ -21706,13 +21882,13 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1010" t="s">
-        <v>1136</v>
+        <v>1095</v>
       </c>
       <c r="B1010" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="D1010" t="s">
         <v>37</v>
@@ -21723,13 +21899,13 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1011" t="s">
-        <v>1138</v>
+        <v>1097</v>
       </c>
       <c r="B1011" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="D1011" t="s">
         <v>45</v>
@@ -21740,13 +21916,13 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1012" t="s">
-        <v>1139</v>
+        <v>1098</v>
       </c>
       <c r="B1012" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1012" s="20" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="D1012" t="s">
         <v>28</v>
@@ -21757,13 +21933,13 @@
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1013" t="s">
-        <v>1140</v>
+        <v>1099</v>
       </c>
       <c r="B1013" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1013" s="20" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="D1013" t="s">
         <v>68</v>
@@ -21774,13 +21950,13 @@
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1014" t="s">
-        <v>1141</v>
+        <v>1100</v>
       </c>
       <c r="B1014" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1014" s="20" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="D1014" t="s">
         <v>154</v>
@@ -21791,13 +21967,13 @@
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1015" t="s">
-        <v>1142</v>
+        <v>1101</v>
       </c>
       <c r="B1015" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1015" s="20" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="D1015" t="s">
         <v>74</v>
@@ -21808,13 +21984,13 @@
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1016" t="s">
-        <v>1143</v>
+        <v>1102</v>
       </c>
       <c r="B1016" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1016" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1016" t="s">
         <v>9</v>
@@ -21825,13 +22001,13 @@
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1017" t="s">
-        <v>1145</v>
+        <v>1104</v>
       </c>
       <c r="B1017" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1017" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1017" t="s">
         <v>21</v>
@@ -21842,13 +22018,13 @@
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1018" t="s">
-        <v>1146</v>
+        <v>1105</v>
       </c>
       <c r="B1018" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1018" t="s">
         <v>30</v>
@@ -21859,13 +22035,13 @@
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1019" t="s">
-        <v>1147</v>
+        <v>1106</v>
       </c>
       <c r="B1019" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1019" t="s">
         <v>24</v>
@@ -21876,13 +22052,13 @@
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1020" t="s">
-        <v>1148</v>
+        <v>1107</v>
       </c>
       <c r="B1020" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1020" t="s">
         <v>33</v>
@@ -21893,13 +22069,13 @@
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1021" t="s">
-        <v>1149</v>
+        <v>1108</v>
       </c>
       <c r="B1021" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1021" t="s">
         <v>166</v>
@@ -21910,13 +22086,13 @@
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1022" t="s">
-        <v>1150</v>
+        <v>1109</v>
       </c>
       <c r="B1022" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1022" t="s">
         <v>35</v>
@@ -21927,13 +22103,13 @@
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1023" t="s">
-        <v>1151</v>
+        <v>1110</v>
       </c>
       <c r="B1023" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1023" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1023" t="s">
         <v>50</v>
@@ -21944,13 +22120,13 @@
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1024" t="s">
-        <v>1152</v>
+        <v>1111</v>
       </c>
       <c r="B1024" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1024" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1024" t="s">
         <v>45</v>
@@ -21961,13 +22137,13 @@
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1025" t="s">
-        <v>1153</v>
+        <v>1112</v>
       </c>
       <c r="B1025" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1025" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1025" t="s">
         <v>154</v>
@@ -21978,13 +22154,13 @@
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1026" t="s">
-        <v>1154</v>
+        <v>1113</v>
       </c>
       <c r="B1026" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1026" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1026" t="s">
         <v>37</v>
@@ -21995,13 +22171,13 @@
     </row>
     <row r="1027" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1027" t="s">
-        <v>1155</v>
+        <v>1114</v>
       </c>
       <c r="B1027" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1027" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1027" t="s">
         <v>135</v>
@@ -22012,13 +22188,13 @@
     </row>
     <row r="1028" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1028" t="s">
-        <v>1156</v>
+        <v>1115</v>
       </c>
       <c r="B1028" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1028" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1028" t="s">
         <v>98</v>
@@ -22029,13 +22205,13 @@
     </row>
     <row r="1029" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1029" t="s">
-        <v>1157</v>
+        <v>1116</v>
       </c>
       <c r="B1029" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1029" t="s">
         <v>154</v>
@@ -22046,13 +22222,13 @@
     </row>
     <row r="1030" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1030" t="s">
-        <v>1158</v>
+        <v>1117</v>
       </c>
       <c r="B1030" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="D1030" t="s">
         <v>108</v>
@@ -22063,13 +22239,13 @@
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1031" t="s">
-        <v>1159</v>
+        <v>1118</v>
       </c>
       <c r="B1031" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1031" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1031" t="s">
         <v>45</v>
@@ -22080,13 +22256,13 @@
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1032" t="s">
-        <v>1161</v>
+        <v>1120</v>
       </c>
       <c r="B1032" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1032" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1032" t="s">
         <v>12</v>
@@ -22097,13 +22273,13 @@
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1033" t="s">
-        <v>1162</v>
+        <v>1121</v>
       </c>
       <c r="B1033" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1033" t="s">
         <v>54</v>
@@ -22114,13 +22290,13 @@
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1034" t="s">
-        <v>1163</v>
+        <v>1122</v>
       </c>
       <c r="B1034" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1034" t="s">
         <v>64</v>
@@ -22131,13 +22307,13 @@
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1035" t="s">
-        <v>1164</v>
+        <v>1123</v>
       </c>
       <c r="B1035" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1035" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1035" t="s">
         <v>121</v>
@@ -22148,13 +22324,13 @@
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1036" t="s">
-        <v>1165</v>
+        <v>1124</v>
       </c>
       <c r="B1036" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1036" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1036" t="s">
         <v>9</v>
@@ -22165,13 +22341,13 @@
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1037" t="s">
-        <v>1166</v>
+        <v>1125</v>
       </c>
       <c r="B1037" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1037" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1037" t="s">
         <v>108</v>
@@ -22182,13 +22358,13 @@
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1038" t="s">
-        <v>1167</v>
+        <v>1126</v>
       </c>
       <c r="B1038" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1038" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1038" t="s">
         <v>98</v>
@@ -22199,13 +22375,13 @@
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1039" t="s">
-        <v>1168</v>
+        <v>1127</v>
       </c>
       <c r="B1039" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1039" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1039" t="s">
         <v>33</v>
@@ -22216,13 +22392,13 @@
     </row>
     <row r="1040" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1040" t="s">
-        <v>1169</v>
+        <v>1128</v>
       </c>
       <c r="B1040" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1040" t="s">
         <v>68</v>
@@ -22233,13 +22409,13 @@
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1041" t="s">
-        <v>1170</v>
+        <v>1129</v>
       </c>
       <c r="B1041" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1041" t="s">
         <v>33</v>
@@ -22250,13 +22426,13 @@
     </row>
     <row r="1042" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1042" t="s">
-        <v>1171</v>
+        <v>1130</v>
       </c>
       <c r="B1042" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1042" t="s">
         <v>135</v>
@@ -22267,13 +22443,13 @@
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1043" t="s">
-        <v>1172</v>
+        <v>1131</v>
       </c>
       <c r="B1043" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1043" t="s">
         <v>96</v>
@@ -22284,13 +22460,13 @@
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1044" t="s">
-        <v>1173</v>
+        <v>1132</v>
       </c>
       <c r="B1044" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1044" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1044" t="s">
         <v>64</v>
@@ -22301,13 +22477,13 @@
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1045" t="s">
-        <v>1174</v>
+        <v>1133</v>
       </c>
       <c r="B1045" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1045" s="20" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="D1045" t="s">
         <v>110</v>
@@ -22318,13 +22494,13 @@
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1046" t="s">
-        <v>1175</v>
+        <v>1134</v>
       </c>
       <c r="B1046" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C1046" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1046" t="s">
         <v>70</v>
@@ -22335,13 +22511,13 @@
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1047" t="s">
-        <v>1177</v>
+        <v>1136</v>
       </c>
       <c r="B1047" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1047" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1047" t="s">
         <v>28</v>
@@ -22352,13 +22528,13 @@
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1048" t="s">
-        <v>1178</v>
+        <v>1137</v>
       </c>
       <c r="B1048" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1048" t="s">
         <v>154</v>
@@ -22369,13 +22545,13 @@
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1049" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="B1049" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1049" t="s">
         <v>108</v>
@@ -22386,13 +22562,13 @@
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1050" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="B1050" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1050" t="s">
         <v>33</v>
@@ -22403,13 +22579,13 @@
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1051" t="s">
-        <v>1181</v>
+        <v>1140</v>
       </c>
       <c r="B1051" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1051" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1051" t="s">
         <v>68</v>
@@ -22420,13 +22596,13 @@
     </row>
     <row r="1052" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1052" t="s">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="B1052" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1052" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1052" t="s">
         <v>154</v>
@@ -22437,13 +22613,13 @@
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1053" t="s">
-        <v>1183</v>
+        <v>1142</v>
       </c>
       <c r="B1053" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1053" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1053" t="s">
         <v>50</v>
@@ -22454,13 +22630,13 @@
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1054" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="B1054" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1054" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1054" t="s">
         <v>108</v>
@@ -22471,13 +22647,13 @@
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1055" t="s">
-        <v>1185</v>
+        <v>1144</v>
       </c>
       <c r="B1055" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1055" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1055" t="s">
         <v>43</v>
@@ -22488,13 +22664,13 @@
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1056" t="s">
-        <v>1186</v>
+        <v>1145</v>
       </c>
       <c r="B1056" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1056" s="20" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D1056" t="s">
         <v>33</v>
@@ -22505,13 +22681,13 @@
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1057" t="s">
-        <v>1187</v>
+        <v>1146</v>
       </c>
       <c r="B1057" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1057" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1057" t="s">
         <v>74</v>
@@ -22522,13 +22698,13 @@
     </row>
     <row r="1058" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1058" t="s">
-        <v>1189</v>
+        <v>1148</v>
       </c>
       <c r="B1058" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1058" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1058" t="s">
         <v>43</v>
@@ -22539,13 +22715,13 @@
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1059" t="s">
-        <v>1190</v>
+        <v>1149</v>
       </c>
       <c r="B1059" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1059" t="s">
         <v>35</v>
@@ -22556,13 +22732,13 @@
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1060" t="s">
-        <v>1191</v>
+        <v>1150</v>
       </c>
       <c r="B1060" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1060" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1060" t="s">
         <v>72</v>
@@ -22573,13 +22749,13 @@
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1061" t="s">
-        <v>1192</v>
+        <v>1151</v>
       </c>
       <c r="B1061" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1061" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1061" t="s">
         <v>92</v>
@@ -22590,13 +22766,13 @@
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1062" t="s">
-        <v>1193</v>
+        <v>1152</v>
       </c>
       <c r="B1062" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1062" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1062" t="s">
         <v>39</v>
@@ -22607,13 +22783,13 @@
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1063" t="s">
-        <v>1194</v>
+        <v>1153</v>
       </c>
       <c r="B1063" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1063" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1063" t="s">
         <v>64</v>
@@ -22624,13 +22800,13 @@
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1064" t="s">
-        <v>1195</v>
+        <v>1154</v>
       </c>
       <c r="B1064" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1064" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1064" t="s">
         <v>30</v>
@@ -22641,13 +22817,13 @@
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1065" t="s">
-        <v>1196</v>
+        <v>1155</v>
       </c>
       <c r="B1065" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1065" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1065" t="s">
         <v>24</v>
@@ -22658,13 +22834,13 @@
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1066" t="s">
-        <v>1197</v>
+        <v>1156</v>
       </c>
       <c r="B1066" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1066" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1066" t="s">
         <v>68</v>
@@ -22675,13 +22851,13 @@
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1067" t="s">
-        <v>1198</v>
+        <v>1157</v>
       </c>
       <c r="B1067" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1067" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1067" t="s">
         <v>26</v>
@@ -22692,13 +22868,13 @@
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1068" t="s">
-        <v>1199</v>
+        <v>1158</v>
       </c>
       <c r="B1068" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1068" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1068" t="s">
         <v>135</v>
@@ -22709,13 +22885,13 @@
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1069" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="B1069" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1069" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1069" t="s">
         <v>110</v>
@@ -22726,13 +22902,13 @@
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1070" t="s">
-        <v>1201</v>
+        <v>1160</v>
       </c>
       <c r="B1070" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1070" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1070" t="s">
         <v>54</v>
@@ -22743,13 +22919,13 @@
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1071" t="s">
-        <v>1202</v>
+        <v>1161</v>
       </c>
       <c r="B1071" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1071" s="20" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1071" t="s">
         <v>96</v>
@@ -22760,13 +22936,13 @@
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1072" t="s">
-        <v>1203</v>
+        <v>1162</v>
       </c>
       <c r="B1072" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1072" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1072" t="s">
         <v>37</v>
@@ -22777,13 +22953,13 @@
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1073" t="s">
-        <v>1205</v>
+        <v>1164</v>
       </c>
       <c r="B1073" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1073" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1073" t="s">
         <v>68</v>
@@ -22794,13 +22970,13 @@
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1074" t="s">
-        <v>1206</v>
+        <v>1165</v>
       </c>
       <c r="B1074" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1074" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1074" t="s">
         <v>28</v>
@@ -22811,13 +22987,13 @@
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1075" t="s">
-        <v>1207</v>
+        <v>1166</v>
       </c>
       <c r="B1075" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1075" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1075" t="s">
         <v>33</v>
@@ -22828,13 +23004,13 @@
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1076" t="s">
-        <v>1208</v>
+        <v>1167</v>
       </c>
       <c r="B1076" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1076" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1076" t="s">
         <v>35</v>
@@ -22845,13 +23021,13 @@
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1077" t="s">
-        <v>1209</v>
+        <v>1168</v>
       </c>
       <c r="B1077" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1077" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1077" t="s">
         <v>54</v>
@@ -22862,13 +23038,13 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1078" t="s">
-        <v>1210</v>
+        <v>1169</v>
       </c>
       <c r="B1078" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1078" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1078" t="s">
         <v>108</v>
@@ -22879,13 +23055,13 @@
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1079" t="s">
-        <v>1211</v>
+        <v>1170</v>
       </c>
       <c r="B1079" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1079" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1079" t="s">
         <v>21</v>
@@ -22896,13 +23072,13 @@
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1080" t="s">
-        <v>1212</v>
+        <v>1171</v>
       </c>
       <c r="B1080" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1080" s="20" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="D1080" t="s">
         <v>74</v>
@@ -22913,13 +23089,13 @@
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1081" t="s">
-        <v>1213</v>
+        <v>1172</v>
       </c>
       <c r="B1081" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1081" s="20" t="s">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="D1081" t="s">
         <v>24</v>
@@ -22930,13 +23106,13 @@
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1082" t="s">
-        <v>1215</v>
+        <v>1174</v>
       </c>
       <c r="B1082" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1082" s="20" t="s">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="D1082" t="s">
         <v>50</v>
@@ -22947,13 +23123,13 @@
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1083" t="s">
-        <v>1216</v>
+        <v>1175</v>
       </c>
       <c r="B1083" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1083" s="20" t="s">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="D1083" t="s">
         <v>86</v>
@@ -22964,13 +23140,13 @@
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1084" t="s">
-        <v>1217</v>
+        <v>1176</v>
       </c>
       <c r="B1084" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1084" s="20" t="s">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="D1084" t="s">
         <v>110</v>
@@ -22981,13 +23157,13 @@
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1085" t="s">
-        <v>1218</v>
+        <v>1177</v>
       </c>
       <c r="B1085" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1085" s="20" t="s">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="D1085" t="s">
         <v>96</v>
@@ -22998,13 +23174,13 @@
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1086" t="s">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="B1086" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1086" s="20" t="s">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="D1086" t="s">
         <v>98</v>
@@ -23015,13 +23191,13 @@
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1087" t="s">
-        <v>1220</v>
+        <v>1179</v>
       </c>
       <c r="B1087" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C1087" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1087" t="s">
         <v>166</v>
@@ -23032,13 +23208,13 @@
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1088" t="s">
-        <v>1222</v>
+        <v>1181</v>
       </c>
       <c r="B1088" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1088" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1088" t="s">
         <v>9</v>
@@ -23049,13 +23225,13 @@
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1089" t="s">
-        <v>1223</v>
+        <v>1182</v>
       </c>
       <c r="B1089" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1089" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1089" t="s">
         <v>12</v>
@@ -23066,13 +23242,13 @@
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1090" t="s">
-        <v>1224</v>
+        <v>1183</v>
       </c>
       <c r="B1090" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1090" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1090" t="s">
         <v>159</v>
@@ -23083,13 +23259,13 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1091" t="s">
-        <v>1225</v>
+        <v>1184</v>
       </c>
       <c r="B1091" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1091" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1091" t="s">
         <v>33</v>
@@ -23100,13 +23276,13 @@
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1092" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="B1092" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1092" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1092" t="s">
         <v>39</v>
@@ -23117,13 +23293,13 @@
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1093" t="s">
-        <v>1227</v>
+        <v>1186</v>
       </c>
       <c r="B1093" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1093" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1093" t="s">
         <v>121</v>
@@ -23134,13 +23310,13 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1094" t="s">
-        <v>1228</v>
+        <v>1187</v>
       </c>
       <c r="B1094" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1094" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1094" t="s">
         <v>24</v>
@@ -23151,13 +23327,13 @@
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1095" t="s">
-        <v>1229</v>
+        <v>1188</v>
       </c>
       <c r="B1095" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1095" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1095" t="s">
         <v>30</v>
@@ -23168,13 +23344,13 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1096" t="s">
-        <v>1230</v>
+        <v>1189</v>
       </c>
       <c r="B1096" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1096" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1096" t="s">
         <v>50</v>
@@ -23185,13 +23361,13 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1097" t="s">
-        <v>1231</v>
+        <v>1190</v>
       </c>
       <c r="B1097" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1097" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1097" t="s">
         <v>21</v>
@@ -23202,13 +23378,13 @@
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1098" t="s">
-        <v>1232</v>
+        <v>1191</v>
       </c>
       <c r="B1098" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1098" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1098" t="s">
         <v>35</v>
@@ -23219,13 +23395,13 @@
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1099" t="s">
-        <v>1233</v>
+        <v>1192</v>
       </c>
       <c r="B1099" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1099" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1099" t="s">
         <v>86</v>
@@ -23236,13 +23412,13 @@
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1100" t="s">
-        <v>1234</v>
+        <v>1193</v>
       </c>
       <c r="B1100" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1100" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1100" t="s">
         <v>74</v>
@@ -23253,13 +23429,13 @@
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1101" t="s">
-        <v>1235</v>
+        <v>1194</v>
       </c>
       <c r="B1101" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1101" s="20" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="D1101" t="s">
         <v>72</v>
@@ -23270,13 +23446,13 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1102" t="s">
-        <v>1236</v>
+        <v>1195</v>
       </c>
       <c r="B1102" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C1102" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1102" t="s">
         <v>135</v>
@@ -23287,13 +23463,13 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1103" t="s">
-        <v>1238</v>
+        <v>1197</v>
       </c>
       <c r="B1103" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C1103" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1103" t="s">
         <v>6</v>
@@ -23304,13 +23480,13 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1104" t="s">
-        <v>1239</v>
+        <v>1198</v>
       </c>
       <c r="B1104" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1104" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1104" t="s">
         <v>26</v>
@@ -23321,13 +23497,13 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1105" t="s">
-        <v>1240</v>
+        <v>1199</v>
       </c>
       <c r="B1105" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1105" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1105" t="s">
         <v>121</v>
@@ -23338,13 +23514,13 @@
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1106" t="s">
-        <v>1241</v>
+        <v>1200</v>
       </c>
       <c r="B1106" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1106" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1106" t="s">
         <v>121</v>
@@ -23355,13 +23531,13 @@
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1107" t="s">
-        <v>1242</v>
+        <v>1201</v>
       </c>
       <c r="B1107" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1107" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1107" t="s">
         <v>28</v>
@@ -23372,13 +23548,13 @@
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1108" t="s">
-        <v>1243</v>
+        <v>1202</v>
       </c>
       <c r="B1108" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1108" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1108" t="s">
         <v>96</v>
@@ -23389,13 +23565,13 @@
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1109" t="s">
-        <v>1244</v>
+        <v>1203</v>
       </c>
       <c r="B1109" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1109" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1109" t="s">
         <v>74</v>
@@ -23406,13 +23582,13 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1110" t="s">
-        <v>1245</v>
+        <v>1204</v>
       </c>
       <c r="B1110" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1110" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1110" t="s">
         <v>37</v>
@@ -23423,13 +23599,13 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1111" t="s">
-        <v>1246</v>
+        <v>1205</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1111" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1111" t="s">
         <v>68</v>
@@ -23440,13 +23616,13 @@
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1112" t="s">
-        <v>1247</v>
+        <v>1206</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1112" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1112" t="s">
         <v>121</v>
@@ -23457,13 +23633,13 @@
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1113" t="s">
-        <v>1248</v>
+        <v>1207</v>
       </c>
       <c r="B1113" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1113" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1113" t="s">
         <v>108</v>
@@ -23474,13 +23650,13 @@
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1114" t="s">
-        <v>1249</v>
+        <v>1208</v>
       </c>
       <c r="B1114" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1114" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1114" t="s">
         <v>21</v>
@@ -23491,13 +23667,13 @@
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1115" t="s">
-        <v>1250</v>
+        <v>1209</v>
       </c>
       <c r="B1115" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1115" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1115" t="s">
         <v>37</v>
@@ -23508,13 +23684,13 @@
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1116" t="s">
-        <v>1251</v>
+        <v>1210</v>
       </c>
       <c r="B1116" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1116" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1116" t="s">
         <v>110</v>
@@ -23525,13 +23701,13 @@
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1117" t="s">
-        <v>1252</v>
+        <v>1211</v>
       </c>
       <c r="B1117" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1117" s="20" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="D1117" t="s">
         <v>68</v>
@@ -23542,13 +23718,13 @@
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1118" t="s">
-        <v>1253</v>
+        <v>1212</v>
       </c>
       <c r="B1118" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1118" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1118" t="s">
         <v>166</v>
@@ -23559,13 +23735,13 @@
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1119" t="s">
-        <v>1255</v>
+        <v>1214</v>
       </c>
       <c r="B1119" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1119" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1119" t="s">
         <v>39</v>
@@ -23576,13 +23752,13 @@
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1120" t="s">
-        <v>1256</v>
+        <v>1215</v>
       </c>
       <c r="B1120" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1120" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1120" t="s">
         <v>26</v>
@@ -23593,13 +23769,13 @@
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1121" t="s">
-        <v>1257</v>
+        <v>1216</v>
       </c>
       <c r="B1121" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1121" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1121" t="s">
         <v>98</v>
@@ -23610,13 +23786,13 @@
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1122" t="s">
-        <v>1258</v>
+        <v>1217</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1122" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1122" t="s">
         <v>110</v>
@@ -23627,13 +23803,13 @@
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1123" t="s">
-        <v>1259</v>
+        <v>1218</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1123" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1123" t="s">
         <v>86</v>
@@ -23644,13 +23820,13 @@
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1124" t="s">
-        <v>1260</v>
+        <v>1219</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1124" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1124" t="s">
         <v>96</v>
@@ -23661,13 +23837,13 @@
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1125" t="s">
-        <v>1261</v>
+        <v>1220</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1125" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1125" t="s">
         <v>12</v>
@@ -23678,13 +23854,13 @@
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1126" t="s">
-        <v>1262</v>
+        <v>1221</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1126" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1126" t="s">
         <v>135</v>
@@ -23695,13 +23871,13 @@
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1127" t="s">
-        <v>1263</v>
+        <v>1222</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1127" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1127" t="s">
         <v>72</v>
@@ -23712,13 +23888,13 @@
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1128" t="s">
-        <v>1264</v>
+        <v>1223</v>
       </c>
       <c r="B1128" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1128" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1128" t="s">
         <v>45</v>
@@ -23729,13 +23905,13 @@
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1129" t="s">
-        <v>1265</v>
+        <v>1224</v>
       </c>
       <c r="B1129" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1129" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1129" t="s">
         <v>70</v>
@@ -23746,13 +23922,13 @@
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1130" t="s">
-        <v>1266</v>
+        <v>1225</v>
       </c>
       <c r="B1130" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1130" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1130" t="s">
         <v>39</v>
@@ -23763,13 +23939,13 @@
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1131" t="s">
-        <v>1267</v>
+        <v>1226</v>
       </c>
       <c r="B1131" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1131" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1131" t="s">
         <v>37</v>
@@ -23780,13 +23956,13 @@
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1132" t="s">
-        <v>1268</v>
+        <v>1227</v>
       </c>
       <c r="B1132" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1132" s="20" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="D1132" t="s">
         <v>24</v>
@@ -23797,13 +23973,13 @@
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1133" t="s">
-        <v>1269</v>
+        <v>1228</v>
       </c>
       <c r="B1133" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1133" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1133" t="s">
         <v>37</v>
@@ -23814,13 +23990,13 @@
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1134" t="s">
-        <v>1271</v>
+        <v>1230</v>
       </c>
       <c r="B1134" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1134" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1134" t="s">
         <v>121</v>
@@ -23831,13 +24007,13 @@
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1135" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="B1135" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1135" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1135" t="s">
         <v>21</v>
@@ -23848,13 +24024,13 @@
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1136" t="s">
-        <v>1273</v>
+        <v>1232</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1136" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1136" t="s">
         <v>68</v>
@@ -23865,13 +24041,13 @@
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1137" t="s">
-        <v>1274</v>
+        <v>1233</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1137" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1137" t="s">
         <v>74</v>
@@ -23882,13 +24058,13 @@
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1138" t="s">
-        <v>1275</v>
+        <v>1234</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1138" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1138" t="s">
         <v>70</v>
@@ -23899,13 +24075,13 @@
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1139" t="s">
-        <v>1276</v>
+        <v>1235</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1139" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1139" t="s">
         <v>54</v>
@@ -23916,13 +24092,13 @@
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1140" t="s">
-        <v>1277</v>
+        <v>1236</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1140" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1140" t="s">
         <v>43</v>
@@ -23933,13 +24109,13 @@
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1141" t="s">
-        <v>1278</v>
+        <v>1237</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1141" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1141" t="s">
         <v>28</v>
@@ -23950,13 +24126,13 @@
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1142" t="s">
-        <v>1279</v>
+        <v>1238</v>
       </c>
       <c r="B1142" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1142" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1142" t="s">
         <v>35</v>
@@ -23967,13 +24143,13 @@
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1143" t="s">
-        <v>1280</v>
+        <v>1239</v>
       </c>
       <c r="B1143" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1143" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1143" t="s">
         <v>45</v>
@@ -23984,13 +24160,13 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1144" t="s">
-        <v>1281</v>
+        <v>1240</v>
       </c>
       <c r="B1144" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1144" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1144" t="s">
         <v>110</v>
@@ -24001,13 +24177,13 @@
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1145" t="s">
-        <v>1282</v>
+        <v>1241</v>
       </c>
       <c r="B1145" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1145" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1145" t="s">
         <v>26</v>
@@ -24018,13 +24194,13 @@
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1146" t="s">
-        <v>1283</v>
+        <v>1242</v>
       </c>
       <c r="B1146" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1146" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1146" t="s">
         <v>154</v>
@@ -24035,13 +24211,13 @@
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1147" t="s">
-        <v>1284</v>
+        <v>1243</v>
       </c>
       <c r="B1147" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1147" s="20" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="D1147" t="s">
         <v>108</v>
@@ -24052,13 +24228,13 @@
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1148" t="s">
-        <v>1285</v>
+        <v>1244</v>
       </c>
       <c r="B1148" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1148" s="20" t="s">
-        <v>1286</v>
+        <v>1245</v>
       </c>
       <c r="D1148" t="s">
         <v>45</v>
@@ -24069,13 +24245,13 @@
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1149" t="s">
-        <v>1287</v>
+        <v>1246</v>
       </c>
       <c r="B1149" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1149" s="20" t="s">
-        <v>1286</v>
+        <v>1245</v>
       </c>
       <c r="D1149" t="s">
         <v>6</v>
@@ -24086,13 +24262,13 @@
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1150" t="s">
-        <v>1288</v>
+        <v>1247</v>
       </c>
       <c r="B1150" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C1150" s="20" t="s">
-        <v>1286</v>
+        <v>1245</v>
       </c>
       <c r="D1150" t="s">
         <v>54</v>
@@ -24103,13 +24279,13 @@
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1151" t="s">
-        <v>1289</v>
+        <v>1248</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C1151" s="20" t="s">
-        <v>1286</v>
+        <v>1245</v>
       </c>
       <c r="D1151" t="s">
         <v>108</v>
@@ -24120,13 +24296,13 @@
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1152" t="s">
-        <v>1290</v>
+        <v>1249</v>
       </c>
       <c r="B1152" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1152" s="20" t="s">
-        <v>1286</v>
+        <v>1245</v>
       </c>
       <c r="D1152" t="s">
         <v>43</v>
@@ -24137,19 +24313,943 @@
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1153" t="s">
-        <v>1291</v>
+        <v>1250</v>
       </c>
       <c r="B1153" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C1153" s="20" t="s">
-        <v>1286</v>
+        <v>1245</v>
       </c>
       <c r="D1153" t="s">
         <v>33</v>
       </c>
       <c r="E1153" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1154" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1154" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1154" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1155" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1155" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1156" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1156" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1157" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1157" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1157" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1158" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1158" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1158" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1159" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1159" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1159" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1160" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1160" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1160" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1161" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1161" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1161" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1162" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1162" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1162" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1163" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1163" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1163" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1164" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1164" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1164" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1165" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1165" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1165" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1166" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1166" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1166" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1167" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1167" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1167" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1168" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1168" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1168" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1169" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1169" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1169" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1170" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1170" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1170" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1171" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1171" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1171" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1172" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1172" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1172" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1173" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1173" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1173" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1174" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1174" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1174" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1175" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1175" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1175" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1176" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1176" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1176" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1177" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1177" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1177" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1178" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1178" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1178" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1179" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1179" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1179" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1180" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1180" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1180" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1181" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1181" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1181" s="20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1182" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1182" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1183" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1183" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1184" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1184" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1185" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1185" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1186" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1186" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1187" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1187" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1188" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1188" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1189" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1189" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1190" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1190" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1191" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1191" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1192" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1192" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1193" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1193" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1194" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1194" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1195" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1195" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1196" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1196" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1197" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1197" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1198" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1198" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1199" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1199" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1200" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1201" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1201" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1202" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1203" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1204" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1205" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1206" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1207" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1207" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1208" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1208" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1209" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1209" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1210" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1210" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1211" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1211" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1212" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1212" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1213" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1213" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1214" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1214" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1215" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1215" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1216" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1216" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1217" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1217" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1218" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1218" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1219" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1219" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1220" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1220" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1221" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1221" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1222" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1222" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1223" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1223" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1224" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1224" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1225" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1225" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1226" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1226" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1227" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1227" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1228" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1228" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1229" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1229" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1230" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1230" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1231" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1231" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1232" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1232" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1233" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1233" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1234" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1234" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1235" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1235" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1236" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1236" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1237" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1237" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>1313</v>
       </c>
     </row>
   </sheetData>
